--- a/wikipedia_validation_sheets/Tonsillitis DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Tonsillitis DISNET VALIDATION.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5C8DB466-CA53-564A-BF33-9264894D50A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE3E550-5783-324B-BD62-CD669CBABDC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47000" yWindow="460" windowWidth="20500" windowHeight="21040" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="155">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -459,20 +465,44 @@
     <t>LOSS OF APPETITE</t>
   </si>
   <si>
-    <t>ANXIETY</t>
-  </si>
-  <si>
     <t>FEAR OF CHOCKING</t>
   </si>
   <si>
     <t>the surface of the tonsil may be bright red and with visible white areas or streaks of pus</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>anxiety, fear</t>
+  </si>
+  <si>
+    <t>Anxiety and fear</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -965,21 +995,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1012,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,13 +1381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" customWidth="1"/>
@@ -1377,37 +1399,37 @@
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" thickBot="1">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1417,23 +1439,23 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1449,20 +1471,20 @@
       <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="48" t="s">
+      <c r="F4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1520,7 +1542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1549,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1607,7 +1629,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1636,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1665,7 +1687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1723,7 +1745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1752,7 +1774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1781,7 +1803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1810,7 +1832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1839,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1868,7 +1890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1897,7 +1919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1926,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1955,7 +1977,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1984,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2071,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2100,7 +2122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2158,7 +2180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2187,7 +2209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2216,7 +2238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2245,7 +2267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2303,7 +2325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2332,7 +2354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2361,7 +2383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2390,7 +2412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2419,7 +2441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2448,7 +2470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2477,7 +2499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2506,7 +2528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2535,7 +2557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2564,7 +2586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2593,7 +2615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2622,7 +2644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2651,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2680,7 +2702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2709,7 +2731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2738,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2767,7 +2789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2796,7 +2818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2825,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2854,7 +2876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2883,7 +2905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2912,7 +2934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2941,7 +2963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2970,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2999,7 +3021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3028,7 +3050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3057,7 +3079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -3086,128 +3108,155 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16" thickBot="1">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="41" t="s">
+      <c r="E61" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1">
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="38"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="32" t="s">
+      <c r="I61" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="37"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="33" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="53" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -3225,9 +3274,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -3245,9 +3294,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
@@ -3265,9 +3314,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
@@ -3285,9 +3334,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -3305,25 +3354,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="16" thickBot="1">
-      <c r="B72" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="35" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="19" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3335,7 +3442,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B64" r:id="rId1" tooltip="Pus" display="https://en.wikipedia.org/wiki/Pus" xr:uid="{8FB307A1-49B6-4F89-9537-74F8134017FA}"/>
+    <hyperlink ref="B67" r:id="rId1" tooltip="Pus" display="https://en.wikipedia.org/wiki/Pus" xr:uid="{8FB307A1-49B6-4F89-9537-74F8134017FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
